--- a/Withers/Resilience ORs.xlsx
+++ b/Withers/Resilience ORs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan\Desktop\USC_research\Withers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E45461-03CE-4790-AE7A-FC22C6FE5DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83A44A-90DA-4D43-93F5-1EC0CEEE4D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="1332" windowWidth="20376" windowHeight="14988" xr2:uid="{110B30C1-CE8B-4819-81AB-D365358B0921}"/>
+    <workbookView xWindow="18552" yWindow="1584" windowWidth="21144" windowHeight="14988" xr2:uid="{110B30C1-CE8B-4819-81AB-D365358B0921}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Variable</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Increase/Decrease</t>
+  </si>
+  <si>
+    <t>Normal vs Low</t>
+  </si>
+  <si>
+    <t>Normal vs High</t>
   </si>
 </sst>
 </file>
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -172,7 +178,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -494,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FB19A7-CE22-42FD-B6F0-8135FEB4E938}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -507,204 +512,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="C2" s="7">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="G2">
-        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1.6E-2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.7E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G3">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3.15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5.7889999999999997</v>
-      </c>
-      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5.7889999999999997</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="6">
         <v>0.32200000000000001</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="6">
         <v>3.629</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="G10">
-        <v>7.0000000000000001E-3</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="6">
         <v>1.3460000000000001</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="6">
         <v>0.53</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="6">
         <v>0.92800000000000005</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>0.67200000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
